--- a/QLSach.xlsx
+++ b/QLSach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\driver\DuAn1\Duan_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A82655-434C-4F1D-90FF-B19EAE150025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0679138F-9CFF-4BC7-B2E5-ADDEBDC0C912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1464" yWindow="0" windowWidth="17280" windowHeight="11052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,19 +76,19 @@
     <t>Doraemon 5</t>
   </si>
   <si>
-    <t>14-19-2002</t>
-  </si>
-  <si>
-    <t>14-19-2003</t>
-  </si>
-  <si>
-    <t>14-19-2004</t>
-  </si>
-  <si>
-    <t>14-19-2005</t>
-  </si>
-  <si>
-    <t>14-19-2006</t>
+    <t>14/09/2002</t>
+  </si>
+  <si>
+    <t>14/09/2003</t>
+  </si>
+  <si>
+    <t>14/09/2004</t>
+  </si>
+  <si>
+    <t>14/09/2005</t>
+  </si>
+  <si>
+    <t>14/09/2006</t>
   </si>
 </sst>
 </file>
